--- a/CumulativeTestsByTypeByCounty/2022-01-27.xlsx
+++ b/CumulativeTestsByTypeByCounty/2022-01-27.xlsx
@@ -1074,16 +1074,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>82225</v>
+        <v>82363</v>
       </c>
       <c r="C2" s="4">
         <v>2088</v>
       </c>
       <c r="D2" s="4">
-        <v>42391</v>
+        <v>42443</v>
       </c>
       <c r="E2" s="4">
-        <v>126704</v>
+        <v>126894</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1091,16 +1091,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>6642</v>
+        <v>6666</v>
       </c>
       <c r="C3" s="4">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D3" s="4">
-        <v>6993</v>
+        <v>7018</v>
       </c>
       <c r="E3" s="4">
-        <v>13974</v>
+        <v>14026</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1108,16 +1108,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>83859</v>
+        <v>84069</v>
       </c>
       <c r="C4" s="4">
-        <v>4494</v>
+        <v>4495</v>
       </c>
       <c r="D4" s="4">
-        <v>84552</v>
+        <v>84766</v>
       </c>
       <c r="E4" s="4">
-        <v>172905</v>
+        <v>173330</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1125,16 +1125,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>17878</v>
+        <v>17959</v>
       </c>
       <c r="C5" s="4">
-        <v>2921</v>
+        <v>2924</v>
       </c>
       <c r="D5" s="4">
-        <v>14723</v>
+        <v>14845</v>
       </c>
       <c r="E5" s="4">
-        <v>35522</v>
+        <v>35728</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1142,16 +1142,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>4958</v>
+        <v>4968</v>
       </c>
       <c r="C6" s="4">
         <v>884</v>
       </c>
       <c r="D6" s="4">
-        <v>1924</v>
+        <v>1928</v>
       </c>
       <c r="E6" s="4">
-        <v>7766</v>
+        <v>7780</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1159,7 +1159,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="4">
-        <v>1151</v>
+        <v>1156</v>
       </c>
       <c r="C7" s="4">
         <v>344</v>
@@ -1168,7 +1168,7 @@
         <v>1571</v>
       </c>
       <c r="E7" s="4">
-        <v>3066</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -1176,16 +1176,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>116544</v>
+        <v>116848</v>
       </c>
       <c r="C8" s="4">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="D8" s="4">
-        <v>17380</v>
+        <v>17424</v>
       </c>
       <c r="E8" s="4">
-        <v>135399</v>
+        <v>135748</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1193,16 +1193,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>31787</v>
+        <v>31856</v>
       </c>
       <c r="C9" s="4">
         <v>1884</v>
       </c>
       <c r="D9" s="4">
-        <v>6143</v>
+        <v>6153</v>
       </c>
       <c r="E9" s="4">
-        <v>39814</v>
+        <v>39893</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1210,16 +1210,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>2816</v>
+        <v>2823</v>
       </c>
       <c r="C10" s="4">
         <v>99</v>
       </c>
       <c r="D10" s="4">
-        <v>2085</v>
+        <v>2189</v>
       </c>
       <c r="E10" s="4">
-        <v>5000</v>
+        <v>5111</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1227,16 +1227,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>15558</v>
+        <v>15612</v>
       </c>
       <c r="C11" s="4">
         <v>851</v>
       </c>
       <c r="D11" s="4">
-        <v>9504</v>
+        <v>9512</v>
       </c>
       <c r="E11" s="4">
-        <v>25913</v>
+        <v>25975</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1244,16 +1244,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>105600</v>
+        <v>105914</v>
       </c>
       <c r="C12" s="4">
-        <v>2603</v>
+        <v>2610</v>
       </c>
       <c r="D12" s="4">
-        <v>47858</v>
+        <v>47922</v>
       </c>
       <c r="E12" s="4">
-        <v>156061</v>
+        <v>156446</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1261,16 +1261,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="4">
-        <v>2315</v>
+        <v>2318</v>
       </c>
       <c r="C13" s="4">
         <v>596</v>
       </c>
       <c r="D13" s="4">
-        <v>4263</v>
+        <v>4271</v>
       </c>
       <c r="E13" s="4">
-        <v>7174</v>
+        <v>7185</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
@@ -1278,16 +1278,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>55517</v>
+        <v>55649</v>
       </c>
       <c r="C14" s="4">
-        <v>8385</v>
+        <v>8393</v>
       </c>
       <c r="D14" s="4">
-        <v>25775</v>
+        <v>25837</v>
       </c>
       <c r="E14" s="4">
-        <v>89677</v>
+        <v>89879</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1295,16 +1295,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>444216</v>
+        <v>445260</v>
       </c>
       <c r="C15" s="4">
-        <v>15908</v>
+        <v>15911</v>
       </c>
       <c r="D15" s="4">
-        <v>109580</v>
+        <v>110312</v>
       </c>
       <c r="E15" s="4">
-        <v>569704</v>
+        <v>571483</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1312,16 +1312,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>4635054</v>
+        <v>4650513</v>
       </c>
       <c r="C16" s="4">
-        <v>77717</v>
+        <v>77782</v>
       </c>
       <c r="D16" s="4">
-        <v>701871</v>
+        <v>703664</v>
       </c>
       <c r="E16" s="4">
-        <v>5414642</v>
+        <v>5431959</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1329,16 +1329,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>9867</v>
+        <v>9887</v>
       </c>
       <c r="C17" s="4">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="D17" s="4">
-        <v>5488</v>
+        <v>5489</v>
       </c>
       <c r="E17" s="4">
-        <v>15902</v>
+        <v>15928</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1363,16 +1363,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>13234</v>
+        <v>13287</v>
       </c>
       <c r="C19" s="4">
         <v>604</v>
       </c>
       <c r="D19" s="4">
-        <v>10173</v>
+        <v>10179</v>
       </c>
       <c r="E19" s="4">
-        <v>24011</v>
+        <v>24070</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1380,16 +1380,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>93864</v>
+        <v>94039</v>
       </c>
       <c r="C20" s="4">
-        <v>10664</v>
+        <v>10665</v>
       </c>
       <c r="D20" s="4">
-        <v>40479</v>
+        <v>40533</v>
       </c>
       <c r="E20" s="4">
-        <v>145007</v>
+        <v>145237</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1397,16 +1397,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>635148</v>
+        <v>636661</v>
       </c>
       <c r="C21" s="4">
-        <v>26703</v>
+        <v>26733</v>
       </c>
       <c r="D21" s="4">
-        <v>130254</v>
+        <v>130705</v>
       </c>
       <c r="E21" s="4">
-        <v>792105</v>
+        <v>794099</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1414,16 +1414,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>485146</v>
+        <v>486643</v>
       </c>
       <c r="C22" s="4">
-        <v>13169</v>
+        <v>13187</v>
       </c>
       <c r="D22" s="4">
-        <v>54996</v>
+        <v>55030</v>
       </c>
       <c r="E22" s="4">
-        <v>553311</v>
+        <v>554860</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1431,16 +1431,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>9479</v>
+        <v>9480</v>
       </c>
       <c r="C23" s="4">
         <v>177</v>
       </c>
       <c r="D23" s="4">
-        <v>3592</v>
+        <v>3594</v>
       </c>
       <c r="E23" s="4">
-        <v>13248</v>
+        <v>13251</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1465,16 +1465,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>25950</v>
+        <v>25963</v>
       </c>
       <c r="C25" s="4">
         <v>1896</v>
       </c>
       <c r="D25" s="4">
-        <v>6948</v>
+        <v>6961</v>
       </c>
       <c r="E25" s="4">
-        <v>34794</v>
+        <v>34820</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1482,16 +1482,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>29048</v>
+        <v>29115</v>
       </c>
       <c r="C26" s="4">
         <v>1263</v>
       </c>
       <c r="D26" s="4">
-        <v>47267</v>
+        <v>47401</v>
       </c>
       <c r="E26" s="4">
-        <v>77578</v>
+        <v>77779</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1499,16 +1499,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>28110</v>
+        <v>28161</v>
       </c>
       <c r="C27" s="4">
         <v>858</v>
       </c>
       <c r="D27" s="4">
-        <v>7456</v>
+        <v>7461</v>
       </c>
       <c r="E27" s="4">
-        <v>36424</v>
+        <v>36480</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1516,16 +1516,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>62120</v>
+        <v>62232</v>
       </c>
       <c r="C28" s="4">
-        <v>2482</v>
+        <v>2484</v>
       </c>
       <c r="D28" s="4">
-        <v>15781</v>
+        <v>15808</v>
       </c>
       <c r="E28" s="4">
-        <v>80383</v>
+        <v>80524</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1533,16 +1533,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>67349</v>
+        <v>67647</v>
       </c>
       <c r="C29" s="4">
         <v>2258</v>
       </c>
       <c r="D29" s="4">
-        <v>19080</v>
+        <v>19096</v>
       </c>
       <c r="E29" s="4">
-        <v>88687</v>
+        <v>89001</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1550,16 +1550,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>22228</v>
+        <v>22246</v>
       </c>
       <c r="C30" s="4">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="D30" s="4">
-        <v>16243</v>
+        <v>16359</v>
       </c>
       <c r="E30" s="4">
-        <v>40787</v>
+        <v>40923</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1567,16 +1567,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>7581</v>
+        <v>7589</v>
       </c>
       <c r="C31" s="4">
         <v>343</v>
       </c>
       <c r="D31" s="4">
-        <v>12902</v>
+        <v>12911</v>
       </c>
       <c r="E31" s="4">
-        <v>20826</v>
+        <v>20843</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1584,16 +1584,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>473861</v>
+        <v>475862</v>
       </c>
       <c r="C32" s="4">
-        <v>11813</v>
+        <v>11824</v>
       </c>
       <c r="D32" s="4">
-        <v>164258</v>
+        <v>164654</v>
       </c>
       <c r="E32" s="4">
-        <v>649932</v>
+        <v>652340</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1601,16 +1601,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>10265</v>
+        <v>10285</v>
       </c>
       <c r="C33" s="4">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D33" s="4">
-        <v>4319</v>
+        <v>4325</v>
       </c>
       <c r="E33" s="4">
-        <v>15139</v>
+        <v>15167</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1618,16 +1618,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>3299</v>
+        <v>3311</v>
       </c>
       <c r="C34" s="4">
         <v>1138</v>
       </c>
       <c r="D34" s="4">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="E34" s="4">
-        <v>6129</v>
+        <v>6143</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1635,16 +1635,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>20686</v>
+        <v>20784</v>
       </c>
       <c r="C35" s="4">
         <v>3374</v>
       </c>
       <c r="D35" s="4">
-        <v>14272</v>
+        <v>14370</v>
       </c>
       <c r="E35" s="4">
-        <v>38332</v>
+        <v>38528</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1652,16 +1652,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="4">
-        <v>8876</v>
+        <v>8880</v>
       </c>
       <c r="C36" s="4">
         <v>446</v>
       </c>
       <c r="D36" s="4">
-        <v>3958</v>
+        <v>3970</v>
       </c>
       <c r="E36" s="4">
-        <v>13280</v>
+        <v>13296</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -1669,16 +1669,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>15320</v>
+        <v>15372</v>
       </c>
       <c r="C37" s="4">
         <v>919</v>
       </c>
       <c r="D37" s="4">
-        <v>3932</v>
+        <v>3939</v>
       </c>
       <c r="E37" s="4">
-        <v>20171</v>
+        <v>20230</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1686,16 +1686,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>39537</v>
+        <v>39608</v>
       </c>
       <c r="C38" s="4">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="D38" s="4">
-        <v>34695</v>
+        <v>34771</v>
       </c>
       <c r="E38" s="4">
-        <v>75549</v>
+        <v>75698</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1703,7 +1703,7 @@
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>7999</v>
+        <v>8031</v>
       </c>
       <c r="C39" s="4">
         <v>479</v>
@@ -1712,7 +1712,7 @@
         <v>6772</v>
       </c>
       <c r="E39" s="4">
-        <v>15250</v>
+        <v>15282</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1720,16 +1720,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>7170</v>
+        <v>7183</v>
       </c>
       <c r="C40" s="4">
         <v>728</v>
       </c>
       <c r="D40" s="4">
-        <v>6185</v>
+        <v>6209</v>
       </c>
       <c r="E40" s="4">
-        <v>14083</v>
+        <v>14120</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1737,16 +1737,16 @@
         <v>44</v>
       </c>
       <c r="B41" s="4">
-        <v>1917</v>
+        <v>1921</v>
       </c>
       <c r="C41" s="4">
         <v>29</v>
       </c>
       <c r="D41" s="4">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="E41" s="4">
-        <v>2459</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
@@ -1754,16 +1754,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>3057</v>
+        <v>3061</v>
       </c>
       <c r="C42" s="4">
         <v>68</v>
       </c>
       <c r="D42" s="4">
-        <v>3703</v>
+        <v>3704</v>
       </c>
       <c r="E42" s="4">
-        <v>6828</v>
+        <v>6833</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1771,16 +1771,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>4833</v>
+        <v>4841</v>
       </c>
       <c r="C43" s="4">
         <v>177</v>
       </c>
       <c r="D43" s="4">
-        <v>5599</v>
+        <v>5602</v>
       </c>
       <c r="E43" s="4">
-        <v>10609</v>
+        <v>10620</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1788,16 +1788,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>1754663</v>
+        <v>1759093</v>
       </c>
       <c r="C44" s="4">
-        <v>115391</v>
+        <v>115448</v>
       </c>
       <c r="D44" s="4">
-        <v>363219</v>
+        <v>364293</v>
       </c>
       <c r="E44" s="4">
-        <v>2233273</v>
+        <v>2238834</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1805,16 +1805,16 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>2130</v>
+        <v>2134</v>
       </c>
       <c r="C45" s="4">
         <v>146</v>
       </c>
       <c r="D45" s="4">
-        <v>3494</v>
+        <v>3495</v>
       </c>
       <c r="E45" s="4">
-        <v>5770</v>
+        <v>5775</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1822,16 +1822,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>20449</v>
+        <v>20486</v>
       </c>
       <c r="C46" s="4">
         <v>1223</v>
       </c>
       <c r="D46" s="4">
-        <v>11231</v>
+        <v>11246</v>
       </c>
       <c r="E46" s="4">
-        <v>32903</v>
+        <v>32955</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1839,16 +1839,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>207037</v>
+        <v>207682</v>
       </c>
       <c r="C47" s="4">
-        <v>12947</v>
+        <v>12971</v>
       </c>
       <c r="D47" s="4">
-        <v>58702</v>
+        <v>58810</v>
       </c>
       <c r="E47" s="4">
-        <v>278686</v>
+        <v>279463</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1856,16 +1856,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>12171</v>
+        <v>12208</v>
       </c>
       <c r="C48" s="4">
         <v>383</v>
       </c>
       <c r="D48" s="4">
-        <v>7083</v>
+        <v>7164</v>
       </c>
       <c r="E48" s="4">
-        <v>19637</v>
+        <v>19755</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1873,16 +1873,16 @@
         <v>52</v>
       </c>
       <c r="B49" s="4">
-        <v>2538</v>
+        <v>2539</v>
       </c>
       <c r="C49" s="4">
         <v>39</v>
       </c>
       <c r="D49" s="4">
-        <v>4982</v>
+        <v>4986</v>
       </c>
       <c r="E49" s="4">
-        <v>7559</v>
+        <v>7564</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1890,16 +1890,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>34471</v>
+        <v>34521</v>
       </c>
       <c r="C50" s="4">
-        <v>2379</v>
+        <v>2382</v>
       </c>
       <c r="D50" s="4">
-        <v>14006</v>
+        <v>14018</v>
       </c>
       <c r="E50" s="4">
-        <v>50856</v>
+        <v>50921</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1907,16 +1907,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>143755</v>
+        <v>143876</v>
       </c>
       <c r="C51" s="4">
         <v>2475</v>
       </c>
       <c r="D51" s="4">
-        <v>32808</v>
+        <v>32865</v>
       </c>
       <c r="E51" s="4">
-        <v>179038</v>
+        <v>179216</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1924,16 +1924,16 @@
         <v>55</v>
       </c>
       <c r="B52" s="4">
-        <v>1423</v>
+        <v>1434</v>
       </c>
       <c r="C52" s="4">
         <v>75</v>
       </c>
       <c r="D52" s="4">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="E52" s="4">
-        <v>2579</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
@@ -1941,16 +1941,16 @@
         <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>5044</v>
+        <v>5048</v>
       </c>
       <c r="C53" s="4">
         <v>96</v>
       </c>
       <c r="D53" s="4">
-        <v>4487</v>
+        <v>4503</v>
       </c>
       <c r="E53" s="4">
-        <v>9627</v>
+        <v>9647</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1958,16 +1958,16 @@
         <v>57</v>
       </c>
       <c r="B54" s="4">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="C54" s="4">
         <v>27</v>
       </c>
       <c r="D54" s="4">
-        <v>5491</v>
+        <v>5547</v>
       </c>
       <c r="E54" s="4">
-        <v>6760</v>
+        <v>6817</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -1975,16 +1975,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="4">
-        <v>4060</v>
+        <v>4062</v>
       </c>
       <c r="C55" s="4">
         <v>76</v>
       </c>
       <c r="D55" s="4">
-        <v>4189</v>
+        <v>4198</v>
       </c>
       <c r="E55" s="4">
-        <v>8325</v>
+        <v>8336</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1992,16 +1992,16 @@
         <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>3022</v>
+        <v>3032</v>
       </c>
       <c r="C56" s="4">
         <v>42</v>
       </c>
       <c r="D56" s="4">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E56" s="4">
-        <v>3511</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2009,16 +2009,16 @@
         <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>4024</v>
+        <v>4037</v>
       </c>
       <c r="C57" s="4">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="D57" s="4">
-        <v>3985</v>
+        <v>3987</v>
       </c>
       <c r="E57" s="4">
-        <v>8607</v>
+        <v>8625</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2026,16 +2026,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>4199854</v>
+        <v>4208542</v>
       </c>
       <c r="C58" s="4">
-        <v>170699</v>
+        <v>170827</v>
       </c>
       <c r="D58" s="4">
-        <v>709204</v>
+        <v>710453</v>
       </c>
       <c r="E58" s="4">
-        <v>5079757</v>
+        <v>5089822</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2043,16 +2043,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>12155</v>
+        <v>12169</v>
       </c>
       <c r="C59" s="4">
         <v>618</v>
       </c>
       <c r="D59" s="4">
-        <v>6478</v>
+        <v>6539</v>
       </c>
       <c r="E59" s="4">
-        <v>19251</v>
+        <v>19326</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2060,16 +2060,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>17046</v>
+        <v>17141</v>
       </c>
       <c r="C60" s="4">
         <v>639</v>
       </c>
       <c r="D60" s="4">
-        <v>8190</v>
+        <v>8289</v>
       </c>
       <c r="E60" s="4">
-        <v>25875</v>
+        <v>26069</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2077,16 +2077,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>8609</v>
+        <v>8623</v>
       </c>
       <c r="C61" s="4">
         <v>1302</v>
       </c>
       <c r="D61" s="4">
-        <v>7298</v>
+        <v>7322</v>
       </c>
       <c r="E61" s="4">
-        <v>17209</v>
+        <v>17247</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2094,16 +2094,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>3307</v>
+        <v>3320</v>
       </c>
       <c r="C62" s="4">
         <v>261</v>
       </c>
       <c r="D62" s="4">
-        <v>3439</v>
+        <v>3442</v>
       </c>
       <c r="E62" s="4">
-        <v>7007</v>
+        <v>7023</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2111,16 +2111,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>1033153</v>
+        <v>1035923</v>
       </c>
       <c r="C63" s="4">
-        <v>83253</v>
+        <v>83295</v>
       </c>
       <c r="D63" s="4">
-        <v>292663</v>
+        <v>293524</v>
       </c>
       <c r="E63" s="4">
-        <v>1409069</v>
+        <v>1412742</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2128,7 +2128,7 @@
         <v>67</v>
       </c>
       <c r="B64" s="4">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="C64" s="4">
         <v>22</v>
@@ -2137,7 +2137,7 @@
         <v>1188</v>
       </c>
       <c r="E64" s="4">
-        <v>2141</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="65" ht="14" customHeight="1">
@@ -2145,16 +2145,16 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>32722</v>
+        <v>32895</v>
       </c>
       <c r="C65" s="4">
         <v>137</v>
       </c>
       <c r="D65" s="4">
-        <v>44012</v>
+        <v>44037</v>
       </c>
       <c r="E65" s="4">
-        <v>76871</v>
+        <v>77069</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2162,16 +2162,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="4">
-        <v>2261</v>
+        <v>2266</v>
       </c>
       <c r="C66" s="4">
         <v>504</v>
       </c>
       <c r="D66" s="4">
-        <v>2398</v>
+        <v>2400</v>
       </c>
       <c r="E66" s="4">
-        <v>5163</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2179,16 +2179,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>25819</v>
+        <v>25878</v>
       </c>
       <c r="C67" s="4">
-        <v>3458</v>
+        <v>3462</v>
       </c>
       <c r="D67" s="4">
-        <v>12883</v>
+        <v>12905</v>
       </c>
       <c r="E67" s="4">
-        <v>42160</v>
+        <v>42245</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2196,16 +2196,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>8069</v>
+        <v>8098</v>
       </c>
       <c r="C68" s="4">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D68" s="4">
-        <v>9820</v>
+        <v>9828</v>
       </c>
       <c r="E68" s="4">
-        <v>18423</v>
+        <v>18462</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2213,16 +2213,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>102821</v>
+        <v>103296</v>
       </c>
       <c r="C69" s="4">
-        <v>6535</v>
+        <v>6538</v>
       </c>
       <c r="D69" s="4">
-        <v>75563</v>
+        <v>75838</v>
       </c>
       <c r="E69" s="4">
-        <v>184919</v>
+        <v>185672</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2230,7 +2230,7 @@
         <v>73</v>
       </c>
       <c r="B70" s="4">
-        <v>1514</v>
+        <v>1521</v>
       </c>
       <c r="C70" s="4">
         <v>44</v>
@@ -2239,7 +2239,7 @@
         <v>988</v>
       </c>
       <c r="E70" s="4">
-        <v>2546</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
@@ -2247,16 +2247,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>1381842</v>
+        <v>1389181</v>
       </c>
       <c r="C71" s="4">
-        <v>23490</v>
+        <v>23500</v>
       </c>
       <c r="D71" s="4">
-        <v>649879</v>
+        <v>650954</v>
       </c>
       <c r="E71" s="4">
-        <v>2055211</v>
+        <v>2063635</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2264,16 +2264,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>275454</v>
+        <v>276176</v>
       </c>
       <c r="C72" s="4">
-        <v>9794</v>
+        <v>9806</v>
       </c>
       <c r="D72" s="4">
-        <v>63066</v>
+        <v>63146</v>
       </c>
       <c r="E72" s="4">
-        <v>348314</v>
+        <v>349128</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2281,16 +2281,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>35651</v>
+        <v>35730</v>
       </c>
       <c r="C73" s="4">
-        <v>2127</v>
+        <v>2133</v>
       </c>
       <c r="D73" s="4">
-        <v>15418</v>
+        <v>15437</v>
       </c>
       <c r="E73" s="4">
-        <v>53196</v>
+        <v>53300</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2298,16 +2298,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>19400</v>
+        <v>19439</v>
       </c>
       <c r="C74" s="4">
         <v>491</v>
       </c>
       <c r="D74" s="4">
-        <v>10664</v>
+        <v>10684</v>
       </c>
       <c r="E74" s="4">
-        <v>30555</v>
+        <v>30614</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2315,16 +2315,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>46718</v>
+        <v>46834</v>
       </c>
       <c r="C75" s="4">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="D75" s="4">
-        <v>12950</v>
+        <v>13005</v>
       </c>
       <c r="E75" s="4">
-        <v>60826</v>
+        <v>61000</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2332,16 +2332,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>24696</v>
+        <v>24756</v>
       </c>
       <c r="C76" s="4">
         <v>1049</v>
       </c>
       <c r="D76" s="4">
-        <v>8323</v>
+        <v>8337</v>
       </c>
       <c r="E76" s="4">
-        <v>34068</v>
+        <v>34142</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2349,16 +2349,16 @@
         <v>80</v>
       </c>
       <c r="B77" s="4">
-        <v>1804</v>
+        <v>1807</v>
       </c>
       <c r="C77" s="4">
         <v>44</v>
       </c>
       <c r="D77" s="4">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="E77" s="4">
-        <v>2691</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2366,7 +2366,7 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>5371</v>
+        <v>5388</v>
       </c>
       <c r="C78" s="4">
         <v>176</v>
@@ -2375,7 +2375,7 @@
         <v>953</v>
       </c>
       <c r="E78" s="4">
-        <v>6500</v>
+        <v>6517</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2383,16 +2383,16 @@
         <v>82</v>
       </c>
       <c r="B79" s="4">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C79" s="4">
         <v>166</v>
       </c>
       <c r="D79" s="4">
-        <v>2031</v>
+        <v>2053</v>
       </c>
       <c r="E79" s="4">
-        <v>2939</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="80" ht="14" customHeight="1">
@@ -2400,16 +2400,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>1300291</v>
+        <v>1303017</v>
       </c>
       <c r="C80" s="4">
-        <v>51699</v>
+        <v>51714</v>
       </c>
       <c r="D80" s="4">
-        <v>186799</v>
+        <v>187197</v>
       </c>
       <c r="E80" s="4">
-        <v>1538789</v>
+        <v>1541928</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2417,16 +2417,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>7713</v>
+        <v>7731</v>
       </c>
       <c r="C81" s="4">
         <v>615</v>
       </c>
       <c r="D81" s="4">
-        <v>2030</v>
+        <v>2034</v>
       </c>
       <c r="E81" s="4">
-        <v>10358</v>
+        <v>10380</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2434,16 +2434,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>25493</v>
+        <v>25559</v>
       </c>
       <c r="C82" s="4">
         <v>853</v>
       </c>
       <c r="D82" s="4">
-        <v>21823</v>
+        <v>21835</v>
       </c>
       <c r="E82" s="4">
-        <v>48169</v>
+        <v>48247</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2451,16 +2451,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>35327</v>
+        <v>35522</v>
       </c>
       <c r="C83" s="4">
         <v>581</v>
       </c>
       <c r="D83" s="4">
-        <v>10037</v>
+        <v>10041</v>
       </c>
       <c r="E83" s="4">
-        <v>45945</v>
+        <v>46144</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2468,16 +2468,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>5551</v>
+        <v>5557</v>
       </c>
       <c r="C84" s="4">
         <v>310</v>
       </c>
       <c r="D84" s="4">
-        <v>2644</v>
+        <v>2689</v>
       </c>
       <c r="E84" s="4">
-        <v>8505</v>
+        <v>8556</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2485,16 +2485,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>677326</v>
+        <v>679151</v>
       </c>
       <c r="C85" s="4">
-        <v>27476</v>
+        <v>27505</v>
       </c>
       <c r="D85" s="4">
-        <v>111269</v>
+        <v>111554</v>
       </c>
       <c r="E85" s="4">
-        <v>816071</v>
+        <v>818210</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2502,16 +2502,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>4446</v>
+        <v>4455</v>
       </c>
       <c r="C86" s="4">
         <v>75</v>
       </c>
       <c r="D86" s="4">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="E86" s="4">
-        <v>6558</v>
+        <v>6568</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2519,16 +2519,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>23079</v>
+        <v>23137</v>
       </c>
       <c r="C87" s="4">
         <v>1064</v>
       </c>
       <c r="D87" s="4">
-        <v>12698</v>
+        <v>12728</v>
       </c>
       <c r="E87" s="4">
-        <v>36841</v>
+        <v>36929</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2553,16 +2553,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>5168</v>
+        <v>5184</v>
       </c>
       <c r="C89" s="4">
         <v>369</v>
       </c>
       <c r="D89" s="4">
-        <v>3972</v>
+        <v>3978</v>
       </c>
       <c r="E89" s="4">
-        <v>9509</v>
+        <v>9531</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2570,16 +2570,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>18247</v>
+        <v>18284</v>
       </c>
       <c r="C90" s="4">
         <v>531</v>
       </c>
       <c r="D90" s="4">
-        <v>12478</v>
+        <v>12479</v>
       </c>
       <c r="E90" s="4">
-        <v>31256</v>
+        <v>31294</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2587,16 +2587,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>14171</v>
+        <v>14215</v>
       </c>
       <c r="C91" s="4">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="D91" s="4">
-        <v>12740</v>
+        <v>12783</v>
       </c>
       <c r="E91" s="4">
-        <v>28288</v>
+        <v>28376</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2604,16 +2604,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>180992</v>
+        <v>181368</v>
       </c>
       <c r="C92" s="4">
-        <v>6332</v>
+        <v>6349</v>
       </c>
       <c r="D92" s="4">
-        <v>55860</v>
+        <v>56313</v>
       </c>
       <c r="E92" s="4">
-        <v>243184</v>
+        <v>244030</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2621,16 +2621,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>86942</v>
+        <v>87255</v>
       </c>
       <c r="C93" s="4">
-        <v>12351</v>
+        <v>12357</v>
       </c>
       <c r="D93" s="4">
-        <v>49661</v>
+        <v>49745</v>
       </c>
       <c r="E93" s="4">
-        <v>148954</v>
+        <v>149357</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2638,16 +2638,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>60186</v>
+        <v>60263</v>
       </c>
       <c r="C94" s="4">
         <v>1507</v>
       </c>
       <c r="D94" s="4">
-        <v>15546</v>
+        <v>15559</v>
       </c>
       <c r="E94" s="4">
-        <v>77239</v>
+        <v>77329</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2655,16 +2655,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>162058</v>
+        <v>162541</v>
       </c>
       <c r="C95" s="4">
-        <v>6307</v>
+        <v>6310</v>
       </c>
       <c r="D95" s="4">
-        <v>52154</v>
+        <v>52246</v>
       </c>
       <c r="E95" s="4">
-        <v>220519</v>
+        <v>221097</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2672,16 +2672,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>33926</v>
+        <v>34038</v>
       </c>
       <c r="C96" s="4">
         <v>547</v>
       </c>
       <c r="D96" s="4">
-        <v>9185</v>
+        <v>9252</v>
       </c>
       <c r="E96" s="4">
-        <v>43658</v>
+        <v>43837</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2689,7 +2689,7 @@
         <v>100</v>
       </c>
       <c r="B97" s="4">
-        <v>2553</v>
+        <v>2572</v>
       </c>
       <c r="C97" s="4">
         <v>80</v>
@@ -2698,7 +2698,7 @@
         <v>3456</v>
       </c>
       <c r="E97" s="4">
-        <v>6089</v>
+        <v>6108</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -2706,16 +2706,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>11805</v>
+        <v>11857</v>
       </c>
       <c r="C98" s="4">
         <v>476</v>
       </c>
       <c r="D98" s="4">
-        <v>4671</v>
+        <v>4724</v>
       </c>
       <c r="E98" s="4">
-        <v>16952</v>
+        <v>17057</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2723,16 +2723,16 @@
         <v>102</v>
       </c>
       <c r="B99" s="4">
-        <v>2093</v>
+        <v>2096</v>
       </c>
       <c r="C99" s="4">
         <v>872</v>
       </c>
       <c r="D99" s="4">
-        <v>3659</v>
+        <v>3661</v>
       </c>
       <c r="E99" s="4">
-        <v>6624</v>
+        <v>6629</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -2740,16 +2740,16 @@
         <v>103</v>
       </c>
       <c r="B100" s="4">
-        <v>2694</v>
+        <v>2705</v>
       </c>
       <c r="C100" s="4">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D100" s="4">
-        <v>3696</v>
+        <v>3702</v>
       </c>
       <c r="E100" s="4">
-        <v>6716</v>
+        <v>6734</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2757,16 +2757,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>45653</v>
+        <v>45787</v>
       </c>
       <c r="C101" s="4">
-        <v>4538</v>
+        <v>4542</v>
       </c>
       <c r="D101" s="4">
-        <v>28744</v>
+        <v>28882</v>
       </c>
       <c r="E101" s="4">
-        <v>78935</v>
+        <v>79211</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2774,16 +2774,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>8029915</v>
+        <v>8049438</v>
       </c>
       <c r="C102" s="4">
-        <v>280851</v>
+        <v>280936</v>
       </c>
       <c r="D102" s="4">
-        <v>1177942</v>
+        <v>1179980</v>
       </c>
       <c r="E102" s="4">
-        <v>9488708</v>
+        <v>9510354</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2791,16 +2791,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>88494</v>
+        <v>88742</v>
       </c>
       <c r="C103" s="4">
-        <v>9389</v>
+        <v>9391</v>
       </c>
       <c r="D103" s="4">
-        <v>35024</v>
+        <v>35147</v>
       </c>
       <c r="E103" s="4">
-        <v>132907</v>
+        <v>133280</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2825,16 +2825,16 @@
         <v>108</v>
       </c>
       <c r="B105" s="4">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="C105" s="4">
         <v>48</v>
       </c>
       <c r="D105" s="4">
-        <v>4012</v>
+        <v>4018</v>
       </c>
       <c r="E105" s="4">
-        <v>6059</v>
+        <v>6066</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2842,16 +2842,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>489657</v>
+        <v>491467</v>
       </c>
       <c r="C106" s="4">
-        <v>17320</v>
+        <v>17333</v>
       </c>
       <c r="D106" s="4">
-        <v>65265</v>
+        <v>65436</v>
       </c>
       <c r="E106" s="4">
-        <v>572242</v>
+        <v>574236</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2859,7 +2859,7 @@
         <v>110</v>
       </c>
       <c r="B107" s="4">
-        <v>1351</v>
+        <v>1364</v>
       </c>
       <c r="C107" s="4">
         <v>548</v>
@@ -2868,7 +2868,7 @@
         <v>568</v>
       </c>
       <c r="E107" s="4">
-        <v>2467</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="108" ht="14" customHeight="1">
@@ -2876,16 +2876,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>52526</v>
+        <v>52738</v>
       </c>
       <c r="C108" s="4">
-        <v>3311</v>
+        <v>3315</v>
       </c>
       <c r="D108" s="4">
-        <v>30744</v>
+        <v>30765</v>
       </c>
       <c r="E108" s="4">
-        <v>86581</v>
+        <v>86818</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2893,16 +2893,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>898276</v>
+        <v>902462</v>
       </c>
       <c r="C109" s="4">
-        <v>22297</v>
+        <v>22345</v>
       </c>
       <c r="D109" s="4">
-        <v>426483</v>
+        <v>427393</v>
       </c>
       <c r="E109" s="4">
-        <v>1347056</v>
+        <v>1352200</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2910,16 +2910,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>44126</v>
+        <v>44215</v>
       </c>
       <c r="C110" s="4">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="D110" s="4">
-        <v>20613</v>
+        <v>20738</v>
       </c>
       <c r="E110" s="4">
-        <v>66052</v>
+        <v>66268</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2927,16 +2927,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>20245</v>
+        <v>20321</v>
       </c>
       <c r="C111" s="4">
         <v>263</v>
       </c>
       <c r="D111" s="4">
-        <v>7936</v>
+        <v>8046</v>
       </c>
       <c r="E111" s="4">
-        <v>28444</v>
+        <v>28630</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2944,16 +2944,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>59254</v>
+        <v>59370</v>
       </c>
       <c r="C112" s="4">
         <v>3318</v>
       </c>
       <c r="D112" s="4">
-        <v>47023</v>
+        <v>47059</v>
       </c>
       <c r="E112" s="4">
-        <v>109595</v>
+        <v>109747</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2961,16 +2961,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>28982</v>
+        <v>29069</v>
       </c>
       <c r="C113" s="4">
         <v>2155</v>
       </c>
       <c r="D113" s="4">
-        <v>15826</v>
+        <v>15933</v>
       </c>
       <c r="E113" s="4">
-        <v>46963</v>
+        <v>47157</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2978,16 +2978,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>21779</v>
+        <v>21803</v>
       </c>
       <c r="C114" s="4">
         <v>713</v>
       </c>
       <c r="D114" s="4">
-        <v>12102</v>
+        <v>12145</v>
       </c>
       <c r="E114" s="4">
-        <v>34594</v>
+        <v>34661</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2995,16 +2995,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>23767</v>
+        <v>23873</v>
       </c>
       <c r="C115" s="4">
         <v>952</v>
       </c>
       <c r="D115" s="4">
-        <v>21541</v>
+        <v>21579</v>
       </c>
       <c r="E115" s="4">
-        <v>46260</v>
+        <v>46404</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3012,16 +3012,16 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>3504</v>
+        <v>3511</v>
       </c>
       <c r="C116" s="4">
         <v>52</v>
       </c>
       <c r="D116" s="4">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="E116" s="4">
-        <v>5348</v>
+        <v>5356</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3029,16 +3029,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>140988</v>
+        <v>141430</v>
       </c>
       <c r="C117" s="4">
-        <v>5252</v>
+        <v>5257</v>
       </c>
       <c r="D117" s="4">
-        <v>51929</v>
+        <v>52134</v>
       </c>
       <c r="E117" s="4">
-        <v>198169</v>
+        <v>198821</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3046,16 +3046,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>14224</v>
+        <v>14246</v>
       </c>
       <c r="C118" s="4">
-        <v>1862</v>
+        <v>1864</v>
       </c>
       <c r="D118" s="4">
-        <v>11056</v>
+        <v>11062</v>
       </c>
       <c r="E118" s="4">
-        <v>27142</v>
+        <v>27172</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3063,16 +3063,16 @@
         <v>122</v>
       </c>
       <c r="B119" s="4">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C119" s="4">
         <v>26</v>
       </c>
       <c r="D119" s="4">
-        <v>983</v>
+        <v>990</v>
       </c>
       <c r="E119" s="4">
-        <v>1568</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="120" ht="14" customHeight="1">
@@ -3080,16 +3080,16 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>5443</v>
+        <v>5452</v>
       </c>
       <c r="C120" s="4">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D120" s="4">
         <v>2078</v>
       </c>
       <c r="E120" s="4">
-        <v>7818</v>
+        <v>7828</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3097,16 +3097,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>11613</v>
+        <v>11656</v>
       </c>
       <c r="C121" s="4">
         <v>567</v>
       </c>
       <c r="D121" s="4">
-        <v>6253</v>
+        <v>6282</v>
       </c>
       <c r="E121" s="4">
-        <v>18433</v>
+        <v>18505</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3114,16 +3114,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>29776</v>
+        <v>29833</v>
       </c>
       <c r="C122" s="4">
-        <v>3137</v>
+        <v>3139</v>
       </c>
       <c r="D122" s="4">
-        <v>17330</v>
+        <v>17390</v>
       </c>
       <c r="E122" s="4">
-        <v>50243</v>
+        <v>50362</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3131,16 +3131,16 @@
         <v>126</v>
       </c>
       <c r="B123" s="4">
-        <v>2029</v>
+        <v>2032</v>
       </c>
       <c r="C123" s="4">
         <v>58</v>
       </c>
       <c r="D123" s="4">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E123" s="4">
-        <v>2478</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="124" ht="14" customHeight="1">
@@ -3148,16 +3148,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>249767</v>
+        <v>250332</v>
       </c>
       <c r="C124" s="4">
-        <v>16608</v>
+        <v>16611</v>
       </c>
       <c r="D124" s="4">
-        <v>111362</v>
+        <v>111511</v>
       </c>
       <c r="E124" s="4">
-        <v>377737</v>
+        <v>378454</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3165,7 +3165,7 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>15153</v>
+        <v>15155</v>
       </c>
       <c r="C125" s="4">
         <v>770</v>
@@ -3174,7 +3174,7 @@
         <v>16406</v>
       </c>
       <c r="E125" s="4">
-        <v>32329</v>
+        <v>32331</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3182,16 +3182,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>85495</v>
+        <v>85742</v>
       </c>
       <c r="C126" s="4">
-        <v>11208</v>
+        <v>11214</v>
       </c>
       <c r="D126" s="4">
-        <v>37759</v>
+        <v>37817</v>
       </c>
       <c r="E126" s="4">
-        <v>134462</v>
+        <v>134773</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3199,16 +3199,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>209913</v>
+        <v>210517</v>
       </c>
       <c r="C127" s="4">
-        <v>9378</v>
+        <v>9386</v>
       </c>
       <c r="D127" s="4">
-        <v>55098</v>
+        <v>55507</v>
       </c>
       <c r="E127" s="4">
-        <v>274389</v>
+        <v>275410</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3216,16 +3216,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>11716</v>
+        <v>11743</v>
       </c>
       <c r="C128" s="4">
         <v>247</v>
       </c>
       <c r="D128" s="4">
-        <v>10373</v>
+        <v>10396</v>
       </c>
       <c r="E128" s="4">
-        <v>22336</v>
+        <v>22386</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3233,16 +3233,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>22807</v>
+        <v>22884</v>
       </c>
       <c r="C129" s="4">
         <v>589</v>
       </c>
       <c r="D129" s="4">
-        <v>14256</v>
+        <v>14260</v>
       </c>
       <c r="E129" s="4">
-        <v>37652</v>
+        <v>37733</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3250,16 +3250,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>189432</v>
+        <v>189986</v>
       </c>
       <c r="C130" s="4">
-        <v>7354</v>
+        <v>7370</v>
       </c>
       <c r="D130" s="4">
-        <v>58731</v>
+        <v>58836</v>
       </c>
       <c r="E130" s="4">
-        <v>255517</v>
+        <v>256192</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3267,16 +3267,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>45999</v>
+        <v>46141</v>
       </c>
       <c r="C131" s="4">
-        <v>2950</v>
+        <v>2952</v>
       </c>
       <c r="D131" s="4">
-        <v>23986</v>
+        <v>24047</v>
       </c>
       <c r="E131" s="4">
-        <v>72935</v>
+        <v>73140</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3290,10 +3290,10 @@
         <v>54</v>
       </c>
       <c r="D132" s="4">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E132" s="4">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="133" ht="14" customHeight="1">
@@ -3307,10 +3307,10 @@
         <v>0</v>
       </c>
       <c r="D133" s="4">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="E133" s="4">
-        <v>2270</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="134" ht="14" customHeight="1">
@@ -3318,16 +3318,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>48396</v>
+        <v>48469</v>
       </c>
       <c r="C134" s="4">
-        <v>2093</v>
+        <v>2098</v>
       </c>
       <c r="D134" s="4">
-        <v>50562</v>
+        <v>50636</v>
       </c>
       <c r="E134" s="4">
-        <v>101051</v>
+        <v>101203</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3335,16 +3335,16 @@
         <v>138</v>
       </c>
       <c r="B135" s="4">
-        <v>2401</v>
+        <v>2408</v>
       </c>
       <c r="C135" s="4">
         <v>72</v>
       </c>
       <c r="D135" s="4">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="E135" s="4">
-        <v>4073</v>
+        <v>4081</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3369,16 +3369,16 @@
         <v>140</v>
       </c>
       <c r="B137" s="4">
-        <v>3512</v>
+        <v>3525</v>
       </c>
       <c r="C137" s="4">
         <v>58</v>
       </c>
       <c r="D137" s="4">
-        <v>840</v>
+        <v>847</v>
       </c>
       <c r="E137" s="4">
-        <v>4410</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="138" ht="14" customHeight="1">
@@ -3386,16 +3386,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>42709</v>
+        <v>42896</v>
       </c>
       <c r="C138" s="4">
-        <v>5517</v>
+        <v>5519</v>
       </c>
       <c r="D138" s="4">
-        <v>19079</v>
+        <v>19202</v>
       </c>
       <c r="E138" s="4">
-        <v>67305</v>
+        <v>67617</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3403,16 +3403,16 @@
         <v>142</v>
       </c>
       <c r="B139" s="4">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="C139" s="4">
         <v>63</v>
       </c>
       <c r="D139" s="4">
-        <v>6866</v>
+        <v>6901</v>
       </c>
       <c r="E139" s="4">
-        <v>8181</v>
+        <v>8218</v>
       </c>
     </row>
     <row r="140" ht="14" customHeight="1">
@@ -3420,16 +3420,16 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>13554</v>
+        <v>13575</v>
       </c>
       <c r="C140" s="4">
         <v>328</v>
       </c>
       <c r="D140" s="4">
-        <v>6644</v>
+        <v>6646</v>
       </c>
       <c r="E140" s="4">
-        <v>20526</v>
+        <v>20549</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3437,16 +3437,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>32529</v>
+        <v>32601</v>
       </c>
       <c r="C141" s="4">
-        <v>3010</v>
+        <v>3011</v>
       </c>
       <c r="D141" s="4">
-        <v>22980</v>
+        <v>23028</v>
       </c>
       <c r="E141" s="4">
-        <v>58519</v>
+        <v>58640</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3454,16 +3454,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>9754</v>
+        <v>9793</v>
       </c>
       <c r="C142" s="4">
         <v>185</v>
       </c>
       <c r="D142" s="4">
-        <v>10942</v>
+        <v>11348</v>
       </c>
       <c r="E142" s="4">
-        <v>20881</v>
+        <v>21326</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3471,16 +3471,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>31249</v>
+        <v>31279</v>
       </c>
       <c r="C143" s="4">
         <v>792</v>
       </c>
       <c r="D143" s="4">
-        <v>8664</v>
+        <v>8669</v>
       </c>
       <c r="E143" s="4">
-        <v>40705</v>
+        <v>40740</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3488,16 +3488,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>19832</v>
+        <v>19929</v>
       </c>
       <c r="C144" s="4">
         <v>1370</v>
       </c>
       <c r="D144" s="4">
-        <v>16140</v>
+        <v>16309</v>
       </c>
       <c r="E144" s="4">
-        <v>37342</v>
+        <v>37608</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3505,16 +3505,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>13855</v>
+        <v>13883</v>
       </c>
       <c r="C145" s="4">
         <v>482</v>
       </c>
       <c r="D145" s="4">
-        <v>7430</v>
+        <v>7444</v>
       </c>
       <c r="E145" s="4">
-        <v>21767</v>
+        <v>21809</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3522,16 +3522,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>17838</v>
+        <v>17888</v>
       </c>
       <c r="C146" s="4">
         <v>865</v>
       </c>
       <c r="D146" s="4">
-        <v>7879</v>
+        <v>7935</v>
       </c>
       <c r="E146" s="4">
-        <v>26582</v>
+        <v>26688</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3539,16 +3539,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>97251</v>
+        <v>97457</v>
       </c>
       <c r="C147" s="4">
-        <v>4781</v>
+        <v>4782</v>
       </c>
       <c r="D147" s="4">
-        <v>27523</v>
+        <v>27666</v>
       </c>
       <c r="E147" s="4">
-        <v>129555</v>
+        <v>129905</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3556,16 +3556,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>41197</v>
+        <v>41248</v>
       </c>
       <c r="C148" s="4">
         <v>798</v>
       </c>
       <c r="D148" s="4">
-        <v>39235</v>
+        <v>39252</v>
       </c>
       <c r="E148" s="4">
-        <v>81230</v>
+        <v>81298</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3579,10 +3579,10 @@
         <v>320</v>
       </c>
       <c r="D149" s="4">
-        <v>967</v>
+        <v>1006</v>
       </c>
       <c r="E149" s="4">
-        <v>1884</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="150" ht="14" customHeight="1">
@@ -3590,16 +3590,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>9785</v>
+        <v>9852</v>
       </c>
       <c r="C150" s="4">
         <v>1353</v>
       </c>
       <c r="D150" s="4">
-        <v>7713</v>
+        <v>7725</v>
       </c>
       <c r="E150" s="4">
-        <v>18851</v>
+        <v>18930</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3607,16 +3607,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>19514</v>
+        <v>19529</v>
       </c>
       <c r="C151" s="4">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="D151" s="4">
-        <v>5549</v>
+        <v>5631</v>
       </c>
       <c r="E151" s="4">
-        <v>25712</v>
+        <v>25812</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3624,16 +3624,16 @@
         <v>155</v>
       </c>
       <c r="B152" s="4">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C152" s="4">
         <v>5</v>
       </c>
       <c r="D152" s="4">
-        <v>9538</v>
+        <v>9637</v>
       </c>
       <c r="E152" s="4">
-        <v>9848</v>
+        <v>9954</v>
       </c>
     </row>
     <row r="153" ht="14" customHeight="1">
@@ -3641,16 +3641,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>368991</v>
+        <v>369839</v>
       </c>
       <c r="C153" s="4">
-        <v>12310</v>
+        <v>12323</v>
       </c>
       <c r="D153" s="4">
-        <v>195187</v>
+        <v>195783</v>
       </c>
       <c r="E153" s="4">
-        <v>576488</v>
+        <v>577945</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3658,16 +3658,16 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>4671</v>
+        <v>4682</v>
       </c>
       <c r="C154" s="4">
         <v>185</v>
       </c>
       <c r="D154" s="4">
-        <v>4323</v>
+        <v>4330</v>
       </c>
       <c r="E154" s="4">
-        <v>9179</v>
+        <v>9197</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3675,16 +3675,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>20427</v>
+        <v>20450</v>
       </c>
       <c r="C155" s="4">
         <v>418</v>
       </c>
       <c r="D155" s="4">
-        <v>7040</v>
+        <v>7087</v>
       </c>
       <c r="E155" s="4">
-        <v>27885</v>
+        <v>27955</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3692,16 +3692,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>4335</v>
+        <v>4357</v>
       </c>
       <c r="C156" s="4">
         <v>872</v>
       </c>
       <c r="D156" s="4">
-        <v>4014</v>
+        <v>4056</v>
       </c>
       <c r="E156" s="4">
-        <v>9221</v>
+        <v>9285</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3709,16 +3709,16 @@
         <v>160</v>
       </c>
       <c r="B157" s="4">
-        <v>1915</v>
+        <v>1917</v>
       </c>
       <c r="C157" s="4">
         <v>277</v>
       </c>
       <c r="D157" s="4">
-        <v>1501</v>
+        <v>1505</v>
       </c>
       <c r="E157" s="4">
-        <v>3693</v>
+        <v>3699</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3726,16 +3726,16 @@
         <v>161</v>
       </c>
       <c r="B158" s="4">
-        <v>2631</v>
+        <v>2642</v>
       </c>
       <c r="C158" s="4">
         <v>125</v>
       </c>
       <c r="D158" s="4">
-        <v>2173</v>
+        <v>2175</v>
       </c>
       <c r="E158" s="4">
-        <v>4929</v>
+        <v>4942</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3743,16 +3743,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>51452</v>
+        <v>51552</v>
       </c>
       <c r="C159" s="4">
         <v>2004</v>
       </c>
       <c r="D159" s="4">
-        <v>8299</v>
+        <v>8304</v>
       </c>
       <c r="E159" s="4">
-        <v>61755</v>
+        <v>61860</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3760,16 +3760,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>102414</v>
+        <v>103091</v>
       </c>
       <c r="C160" s="4">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D160" s="4">
-        <v>28805</v>
+        <v>28867</v>
       </c>
       <c r="E160" s="4">
-        <v>131742</v>
+        <v>132483</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3777,16 +3777,16 @@
         <v>164</v>
       </c>
       <c r="B161" s="4">
-        <v>3939</v>
+        <v>3948</v>
       </c>
       <c r="C161" s="4">
         <v>94</v>
       </c>
       <c r="D161" s="4">
-        <v>4637</v>
+        <v>4640</v>
       </c>
       <c r="E161" s="4">
-        <v>8670</v>
+        <v>8682</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3794,16 +3794,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>444478</v>
+        <v>446084</v>
       </c>
       <c r="C162" s="4">
-        <v>13406</v>
+        <v>13412</v>
       </c>
       <c r="D162" s="4">
-        <v>164085</v>
+        <v>164529</v>
       </c>
       <c r="E162" s="4">
-        <v>621969</v>
+        <v>624025</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3828,16 +3828,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>53806</v>
+        <v>54026</v>
       </c>
       <c r="C164" s="4">
         <v>1729</v>
       </c>
       <c r="D164" s="4">
-        <v>16443</v>
+        <v>16550</v>
       </c>
       <c r="E164" s="4">
-        <v>71978</v>
+        <v>72305</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3845,16 +3845,16 @@
         <v>168</v>
       </c>
       <c r="B165" s="4">
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="C165" s="4">
         <v>29</v>
       </c>
       <c r="D165" s="4">
-        <v>2609</v>
+        <v>2613</v>
       </c>
       <c r="E165" s="4">
-        <v>5142</v>
+        <v>5147</v>
       </c>
     </row>
     <row r="166" ht="14" customHeight="1">
@@ -3862,16 +3862,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>87229</v>
+        <v>87447</v>
       </c>
       <c r="C166" s="4">
-        <v>11858</v>
+        <v>11864</v>
       </c>
       <c r="D166" s="4">
-        <v>89616</v>
+        <v>89736</v>
       </c>
       <c r="E166" s="4">
-        <v>188703</v>
+        <v>189047</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3879,16 +3879,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>26932</v>
+        <v>26965</v>
       </c>
       <c r="C167" s="4">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="D167" s="4">
-        <v>14980</v>
+        <v>15115</v>
       </c>
       <c r="E167" s="4">
-        <v>43260</v>
+        <v>43430</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3896,16 +3896,16 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>9297</v>
+        <v>9308</v>
       </c>
       <c r="C168" s="4">
         <v>137</v>
       </c>
       <c r="D168" s="4">
-        <v>2927</v>
+        <v>2928</v>
       </c>
       <c r="E168" s="4">
-        <v>12361</v>
+        <v>12373</v>
       </c>
     </row>
     <row r="169" ht="14" customHeight="1">
@@ -3913,16 +3913,16 @@
         <v>172</v>
       </c>
       <c r="B169" s="4">
-        <v>9053</v>
+        <v>9058</v>
       </c>
       <c r="C169" s="4">
         <v>86</v>
       </c>
       <c r="D169" s="4">
-        <v>7661</v>
+        <v>7676</v>
       </c>
       <c r="E169" s="4">
-        <v>16800</v>
+        <v>16820</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3930,16 +3930,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>19982</v>
+        <v>20031</v>
       </c>
       <c r="C170" s="4">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="D170" s="4">
-        <v>10244</v>
+        <v>10258</v>
       </c>
       <c r="E170" s="4">
-        <v>31569</v>
+        <v>31633</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3947,16 +3947,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>754322</v>
+        <v>756223</v>
       </c>
       <c r="C171" s="4">
-        <v>48841</v>
+        <v>48853</v>
       </c>
       <c r="D171" s="4">
-        <v>164357</v>
+        <v>164733</v>
       </c>
       <c r="E171" s="4">
-        <v>967520</v>
+        <v>969809</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3964,16 +3964,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>11648</v>
+        <v>11662</v>
       </c>
       <c r="C172" s="4">
         <v>1257</v>
       </c>
       <c r="D172" s="4">
-        <v>7234</v>
+        <v>7247</v>
       </c>
       <c r="E172" s="4">
-        <v>20139</v>
+        <v>20166</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3981,16 +3981,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>9993</v>
+        <v>10026</v>
       </c>
       <c r="C173" s="4">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D173" s="4">
-        <v>8978</v>
+        <v>8982</v>
       </c>
       <c r="E173" s="4">
-        <v>19793</v>
+        <v>19831</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -3998,7 +3998,7 @@
         <v>177</v>
       </c>
       <c r="B174" s="4">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C174" s="4">
         <v>17</v>
@@ -4007,7 +4007,7 @@
         <v>528</v>
       </c>
       <c r="E174" s="4">
-        <v>1330</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="175" ht="14" customHeight="1">
@@ -4015,16 +4015,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>68818</v>
+        <v>69095</v>
       </c>
       <c r="C175" s="4">
-        <v>4444</v>
+        <v>4448</v>
       </c>
       <c r="D175" s="4">
-        <v>23374</v>
+        <v>23401</v>
       </c>
       <c r="E175" s="4">
-        <v>96636</v>
+        <v>96944</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4032,16 +4032,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>43614</v>
+        <v>43656</v>
       </c>
       <c r="C176" s="4">
-        <v>2082</v>
+        <v>2085</v>
       </c>
       <c r="D176" s="4">
-        <v>36674</v>
+        <v>36815</v>
       </c>
       <c r="E176" s="4">
-        <v>82370</v>
+        <v>82556</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4049,16 +4049,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>7549</v>
+        <v>7560</v>
       </c>
       <c r="C177" s="4">
         <v>936</v>
       </c>
       <c r="D177" s="4">
-        <v>5935</v>
+        <v>5939</v>
       </c>
       <c r="E177" s="4">
-        <v>14420</v>
+        <v>14435</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4066,16 +4066,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>10347</v>
+        <v>10352</v>
       </c>
       <c r="C178" s="4">
         <v>235</v>
       </c>
       <c r="D178" s="4">
-        <v>8616</v>
+        <v>8640</v>
       </c>
       <c r="E178" s="4">
-        <v>19198</v>
+        <v>19227</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4083,16 +4083,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>389337</v>
+        <v>390662</v>
       </c>
       <c r="C179" s="4">
-        <v>53464</v>
+        <v>53488</v>
       </c>
       <c r="D179" s="4">
-        <v>187605</v>
+        <v>188083</v>
       </c>
       <c r="E179" s="4">
-        <v>630406</v>
+        <v>632233</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4100,16 +4100,16 @@
         <v>183</v>
       </c>
       <c r="B180" s="4">
-        <v>1726</v>
+        <v>1734</v>
       </c>
       <c r="C180" s="4">
         <v>467</v>
       </c>
       <c r="D180" s="4">
-        <v>1446</v>
+        <v>1452</v>
       </c>
       <c r="E180" s="4">
-        <v>3639</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="181" ht="14" customHeight="1">
@@ -4117,7 +4117,7 @@
         <v>184</v>
       </c>
       <c r="B181" s="4">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="C181" s="4">
         <v>426</v>
@@ -4126,7 +4126,7 @@
         <v>1351</v>
       </c>
       <c r="E181" s="4">
-        <v>2986</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="182" ht="14" customHeight="1">
@@ -4134,16 +4134,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>57315</v>
+        <v>57507</v>
       </c>
       <c r="C182" s="4">
-        <v>7212</v>
+        <v>7222</v>
       </c>
       <c r="D182" s="4">
-        <v>33060</v>
+        <v>33375</v>
       </c>
       <c r="E182" s="4">
-        <v>97587</v>
+        <v>98104</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4151,16 +4151,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>27365</v>
+        <v>27473</v>
       </c>
       <c r="C183" s="4">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="D183" s="4">
-        <v>13950</v>
+        <v>13958</v>
       </c>
       <c r="E183" s="4">
-        <v>42455</v>
+        <v>42572</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4168,16 +4168,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>15560</v>
+        <v>15599</v>
       </c>
       <c r="C184" s="4">
         <v>1346</v>
       </c>
       <c r="D184" s="4">
-        <v>10792</v>
+        <v>10859</v>
       </c>
       <c r="E184" s="4">
-        <v>27698</v>
+        <v>27804</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4185,16 +4185,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>145495</v>
+        <v>145899</v>
       </c>
       <c r="C185" s="4">
-        <v>8027</v>
+        <v>8041</v>
       </c>
       <c r="D185" s="4">
-        <v>43762</v>
+        <v>43798</v>
       </c>
       <c r="E185" s="4">
-        <v>197284</v>
+        <v>197738</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4202,16 +4202,16 @@
         <v>189</v>
       </c>
       <c r="B186" s="4">
-        <v>3511</v>
+        <v>3523</v>
       </c>
       <c r="C186" s="4">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D186" s="4">
-        <v>4097</v>
+        <v>4115</v>
       </c>
       <c r="E186" s="4">
-        <v>7991</v>
+        <v>8022</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4219,16 +4219,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>15119</v>
+        <v>15131</v>
       </c>
       <c r="C187" s="4">
         <v>172</v>
       </c>
       <c r="D187" s="4">
-        <v>5298</v>
+        <v>5306</v>
       </c>
       <c r="E187" s="4">
-        <v>20589</v>
+        <v>20609</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4236,16 +4236,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>59711</v>
+        <v>59927</v>
       </c>
       <c r="C188" s="4">
-        <v>2954</v>
+        <v>2956</v>
       </c>
       <c r="D188" s="4">
-        <v>23892</v>
+        <v>23918</v>
       </c>
       <c r="E188" s="4">
-        <v>86557</v>
+        <v>86801</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4253,16 +4253,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>121825</v>
+        <v>122034</v>
       </c>
       <c r="C189" s="4">
-        <v>10228</v>
+        <v>10235</v>
       </c>
       <c r="D189" s="4">
-        <v>50844</v>
+        <v>50959</v>
       </c>
       <c r="E189" s="4">
-        <v>182897</v>
+        <v>183228</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4270,16 +4270,16 @@
         <v>193</v>
       </c>
       <c r="B190" s="4">
-        <v>8075</v>
+        <v>8083</v>
       </c>
       <c r="C190" s="4">
         <v>62</v>
       </c>
       <c r="D190" s="4">
-        <v>2420</v>
+        <v>2421</v>
       </c>
       <c r="E190" s="4">
-        <v>10557</v>
+        <v>10566</v>
       </c>
     </row>
     <row r="191" ht="14" customHeight="1">
@@ -4287,16 +4287,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>6120</v>
+        <v>6125</v>
       </c>
       <c r="C191" s="4">
         <v>496</v>
       </c>
       <c r="D191" s="4">
-        <v>3898</v>
+        <v>3902</v>
       </c>
       <c r="E191" s="4">
-        <v>10514</v>
+        <v>10523</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4304,16 +4304,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>91119</v>
+        <v>91365</v>
       </c>
       <c r="C192" s="4">
-        <v>20937</v>
+        <v>20951</v>
       </c>
       <c r="D192" s="4">
-        <v>45603</v>
+        <v>45676</v>
       </c>
       <c r="E192" s="4">
-        <v>157659</v>
+        <v>157992</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4321,16 +4321,16 @@
         <v>196</v>
       </c>
       <c r="B193" s="4">
-        <v>1277</v>
+        <v>1290</v>
       </c>
       <c r="C193" s="4">
         <v>47</v>
       </c>
       <c r="D193" s="4">
-        <v>1348</v>
+        <v>1358</v>
       </c>
       <c r="E193" s="4">
-        <v>2672</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="194" ht="14" customHeight="1">
@@ -4338,16 +4338,16 @@
         <v>197</v>
       </c>
       <c r="B194" s="4">
-        <v>2895</v>
+        <v>2899</v>
       </c>
       <c r="C194" s="4">
         <v>130</v>
       </c>
       <c r="D194" s="4">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="E194" s="4">
-        <v>4821</v>
+        <v>4827</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4355,16 +4355,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>8778</v>
+        <v>8791</v>
       </c>
       <c r="C195" s="4">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D195" s="4">
-        <v>9785</v>
+        <v>9841</v>
       </c>
       <c r="E195" s="4">
-        <v>19326</v>
+        <v>19396</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4372,16 +4372,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>13877</v>
+        <v>13896</v>
       </c>
       <c r="C196" s="4">
         <v>547</v>
       </c>
       <c r="D196" s="4">
-        <v>97659</v>
+        <v>97761</v>
       </c>
       <c r="E196" s="4">
-        <v>112083</v>
+        <v>112204</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4389,16 +4389,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>6352</v>
+        <v>6366</v>
       </c>
       <c r="C197" s="4">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D197" s="4">
-        <v>8924</v>
+        <v>9014</v>
       </c>
       <c r="E197" s="4">
-        <v>15804</v>
+        <v>15909</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4406,16 +4406,16 @@
         <v>201</v>
       </c>
       <c r="B198" s="4">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C198" s="4">
         <v>128</v>
       </c>
       <c r="D198" s="4">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E198" s="4">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="199" ht="14" customHeight="1">
@@ -4423,16 +4423,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>20463</v>
+        <v>20498</v>
       </c>
       <c r="C199" s="4">
         <v>578</v>
       </c>
       <c r="D199" s="4">
-        <v>14367</v>
+        <v>14372</v>
       </c>
       <c r="E199" s="4">
-        <v>35408</v>
+        <v>35448</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4440,16 +4440,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>121294</v>
+        <v>121709</v>
       </c>
       <c r="C200" s="4">
-        <v>8221</v>
+        <v>8228</v>
       </c>
       <c r="D200" s="4">
-        <v>23659</v>
+        <v>23689</v>
       </c>
       <c r="E200" s="4">
-        <v>153174</v>
+        <v>153626</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4457,16 +4457,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>8396</v>
+        <v>8411</v>
       </c>
       <c r="C201" s="4">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D201" s="4">
-        <v>8889</v>
+        <v>8909</v>
       </c>
       <c r="E201" s="4">
-        <v>17536</v>
+        <v>17573</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4474,16 +4474,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>37465</v>
+        <v>37560</v>
       </c>
       <c r="C202" s="4">
         <v>2519</v>
       </c>
       <c r="D202" s="4">
-        <v>11261</v>
+        <v>11304</v>
       </c>
       <c r="E202" s="4">
-        <v>51245</v>
+        <v>51383</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4491,16 +4491,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>11398</v>
+        <v>11413</v>
       </c>
       <c r="C203" s="4">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D203" s="4">
-        <v>5242</v>
+        <v>5247</v>
       </c>
       <c r="E203" s="4">
-        <v>17400</v>
+        <v>17421</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4508,16 +4508,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>10753</v>
+        <v>10770</v>
       </c>
       <c r="C204" s="4">
         <v>295</v>
       </c>
       <c r="D204" s="4">
-        <v>9640</v>
+        <v>9690</v>
       </c>
       <c r="E204" s="4">
-        <v>20688</v>
+        <v>20755</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4525,16 +4525,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>33632</v>
+        <v>33706</v>
       </c>
       <c r="C205" s="4">
         <v>2518</v>
       </c>
       <c r="D205" s="4">
-        <v>11228</v>
+        <v>11245</v>
       </c>
       <c r="E205" s="4">
-        <v>47378</v>
+        <v>47469</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4542,16 +4542,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>59187</v>
+        <v>59484</v>
       </c>
       <c r="C206" s="4">
-        <v>10050</v>
+        <v>10052</v>
       </c>
       <c r="D206" s="4">
-        <v>47480</v>
+        <v>47561</v>
       </c>
       <c r="E206" s="4">
-        <v>116717</v>
+        <v>117097</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4559,16 +4559,16 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>5686</v>
+        <v>5701</v>
       </c>
       <c r="C207" s="4">
         <v>135</v>
       </c>
       <c r="D207" s="4">
-        <v>4449</v>
+        <v>4455</v>
       </c>
       <c r="E207" s="4">
-        <v>10270</v>
+        <v>10291</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4576,16 +4576,16 @@
         <v>211</v>
       </c>
       <c r="B208" s="4">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="C208" s="4">
         <v>25</v>
       </c>
       <c r="D208" s="4">
-        <v>1141</v>
+        <v>1149</v>
       </c>
       <c r="E208" s="4">
-        <v>2334</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="209" ht="14" customHeight="1">
@@ -4593,16 +4593,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>30870</v>
+        <v>30939</v>
       </c>
       <c r="C209" s="4">
         <v>356</v>
       </c>
       <c r="D209" s="4">
-        <v>5313</v>
+        <v>5316</v>
       </c>
       <c r="E209" s="4">
-        <v>36539</v>
+        <v>36611</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4610,16 +4610,16 @@
         <v>213</v>
       </c>
       <c r="B210" s="4">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="C210" s="4">
         <v>98</v>
       </c>
       <c r="D210" s="4">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="E210" s="4">
-        <v>2724</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="211" ht="14" customHeight="1">
@@ -4627,16 +4627,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>23081</v>
+        <v>23138</v>
       </c>
       <c r="C211" s="4">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="D211" s="4">
-        <v>11412</v>
+        <v>11426</v>
       </c>
       <c r="E211" s="4">
-        <v>35951</v>
+        <v>36023</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4644,16 +4644,16 @@
         <v>215</v>
       </c>
       <c r="B212" s="4">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C212" s="4">
         <v>177</v>
       </c>
       <c r="D212" s="4">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E212" s="4">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="213" ht="14" customHeight="1">
@@ -4661,16 +4661,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>310728</v>
+        <v>311594</v>
       </c>
       <c r="C213" s="4">
-        <v>15228</v>
+        <v>15248</v>
       </c>
       <c r="D213" s="4">
-        <v>110185</v>
+        <v>110435</v>
       </c>
       <c r="E213" s="4">
-        <v>436141</v>
+        <v>437277</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4678,16 +4678,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>9459</v>
+        <v>9488</v>
       </c>
       <c r="C214" s="4">
         <v>451</v>
       </c>
       <c r="D214" s="4">
-        <v>8764</v>
+        <v>8766</v>
       </c>
       <c r="E214" s="4">
-        <v>18674</v>
+        <v>18705</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4695,16 +4695,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>85403</v>
+        <v>85734</v>
       </c>
       <c r="C215" s="4">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D215" s="4">
-        <v>38287</v>
+        <v>38419</v>
       </c>
       <c r="E215" s="4">
-        <v>124605</v>
+        <v>125069</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4712,16 +4712,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>6346</v>
+        <v>6352</v>
       </c>
       <c r="C216" s="4">
         <v>170</v>
       </c>
       <c r="D216" s="4">
-        <v>7710</v>
+        <v>7728</v>
       </c>
       <c r="E216" s="4">
-        <v>14226</v>
+        <v>14250</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4729,16 +4729,16 @@
         <v>220</v>
       </c>
       <c r="B217" s="4">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C217" s="4">
         <v>25</v>
       </c>
       <c r="D217" s="4">
-        <v>1109</v>
+        <v>1114</v>
       </c>
       <c r="E217" s="4">
-        <v>1865</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="218" ht="14" customHeight="1">
@@ -4752,10 +4752,10 @@
         <v>10</v>
       </c>
       <c r="D218" s="4">
-        <v>1866</v>
+        <v>1919</v>
       </c>
       <c r="E218" s="4">
-        <v>2079</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="219" ht="14" customHeight="1">
@@ -4763,16 +4763,16 @@
         <v>222</v>
       </c>
       <c r="B219" s="4">
-        <v>1559</v>
+        <v>1563</v>
       </c>
       <c r="C219" s="4">
         <v>47</v>
       </c>
       <c r="D219" s="4">
-        <v>1525</v>
+        <v>1531</v>
       </c>
       <c r="E219" s="4">
-        <v>3131</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="220" ht="14" customHeight="1">
@@ -4780,16 +4780,16 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>8705</v>
+        <v>8720</v>
       </c>
       <c r="C220" s="4">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D220" s="4">
-        <v>2515</v>
+        <v>2519</v>
       </c>
       <c r="E220" s="4">
-        <v>11688</v>
+        <v>11709</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4797,16 +4797,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>3015236</v>
+        <v>3023915</v>
       </c>
       <c r="C221" s="4">
-        <v>118533</v>
+        <v>118583</v>
       </c>
       <c r="D221" s="4">
-        <v>661296</v>
+        <v>663228</v>
       </c>
       <c r="E221" s="4">
-        <v>3795065</v>
+        <v>3805726</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4814,16 +4814,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>122869</v>
+        <v>123044</v>
       </c>
       <c r="C222" s="4">
-        <v>4694</v>
+        <v>4704</v>
       </c>
       <c r="D222" s="4">
-        <v>161749</v>
+        <v>161915</v>
       </c>
       <c r="E222" s="4">
-        <v>289312</v>
+        <v>289663</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4831,7 +4831,7 @@
         <v>226</v>
       </c>
       <c r="B223" s="4">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C223" s="4">
         <v>12</v>
@@ -4840,7 +4840,7 @@
         <v>315</v>
       </c>
       <c r="E223" s="4">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="224" ht="14" customHeight="1">
@@ -4848,16 +4848,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>6158</v>
+        <v>6162</v>
       </c>
       <c r="C224" s="4">
         <v>138</v>
       </c>
       <c r="D224" s="4">
-        <v>4432</v>
+        <v>4435</v>
       </c>
       <c r="E224" s="4">
-        <v>10728</v>
+        <v>10735</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4865,7 +4865,7 @@
         <v>228</v>
       </c>
       <c r="B225" s="4">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C225" s="4">
         <v>57</v>
@@ -4874,7 +4874,7 @@
         <v>1033</v>
       </c>
       <c r="E225" s="4">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="226" ht="14" customHeight="1">
@@ -4882,16 +4882,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>36118</v>
+        <v>36228</v>
       </c>
       <c r="C226" s="4">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="D226" s="4">
-        <v>10906</v>
+        <v>10911</v>
       </c>
       <c r="E226" s="4">
-        <v>48501</v>
+        <v>48618</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4899,16 +4899,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>104978</v>
+        <v>105187</v>
       </c>
       <c r="C227" s="4">
-        <v>3295</v>
+        <v>3296</v>
       </c>
       <c r="D227" s="4">
-        <v>148538</v>
+        <v>149390</v>
       </c>
       <c r="E227" s="4">
-        <v>256811</v>
+        <v>257873</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4916,16 +4916,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>2049066</v>
+        <v>2055095</v>
       </c>
       <c r="C228" s="4">
-        <v>85983</v>
+        <v>86100</v>
       </c>
       <c r="D228" s="4">
-        <v>497253</v>
+        <v>498320</v>
       </c>
       <c r="E228" s="4">
-        <v>2632302</v>
+        <v>2639515</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4933,16 +4933,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>19095</v>
+        <v>19121</v>
       </c>
       <c r="C229" s="4">
         <v>627</v>
       </c>
       <c r="D229" s="4">
-        <v>9043</v>
+        <v>9046</v>
       </c>
       <c r="E229" s="4">
-        <v>28765</v>
+        <v>28794</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4950,16 +4950,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>17343</v>
+        <v>17368</v>
       </c>
       <c r="C230" s="4">
         <v>1121</v>
       </c>
       <c r="D230" s="4">
-        <v>11743</v>
+        <v>11758</v>
       </c>
       <c r="E230" s="4">
-        <v>30207</v>
+        <v>30247</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4967,16 +4967,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>17121</v>
+        <v>17187</v>
       </c>
       <c r="C231" s="4">
         <v>2564</v>
       </c>
       <c r="D231" s="4">
-        <v>10529</v>
+        <v>10539</v>
       </c>
       <c r="E231" s="4">
-        <v>30214</v>
+        <v>30290</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4984,16 +4984,16 @@
         <v>235</v>
       </c>
       <c r="B232" s="4">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="C232" s="4">
         <v>103</v>
       </c>
       <c r="D232" s="4">
-        <v>4388</v>
+        <v>4424</v>
       </c>
       <c r="E232" s="4">
-        <v>5794</v>
+        <v>5833</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -5001,16 +5001,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>48592</v>
+        <v>48919</v>
       </c>
       <c r="C233" s="4">
         <v>620</v>
       </c>
       <c r="D233" s="4">
-        <v>5473</v>
+        <v>5586</v>
       </c>
       <c r="E233" s="4">
-        <v>54685</v>
+        <v>55125</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5018,16 +5018,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>71074</v>
+        <v>71446</v>
       </c>
       <c r="C234" s="4">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="D234" s="4">
-        <v>36464</v>
+        <v>36479</v>
       </c>
       <c r="E234" s="4">
-        <v>108895</v>
+        <v>109284</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5035,16 +5035,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>36248</v>
+        <v>36340</v>
       </c>
       <c r="C235" s="4">
-        <v>2473</v>
+        <v>2475</v>
       </c>
       <c r="D235" s="4">
-        <v>23900</v>
+        <v>24049</v>
       </c>
       <c r="E235" s="4">
-        <v>62621</v>
+        <v>62864</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5052,16 +5052,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>79584</v>
+        <v>79679</v>
       </c>
       <c r="C236" s="4">
-        <v>5628</v>
+        <v>5648</v>
       </c>
       <c r="D236" s="4">
-        <v>35386</v>
+        <v>35457</v>
       </c>
       <c r="E236" s="4">
-        <v>120598</v>
+        <v>120784</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5069,16 +5069,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>178960</v>
+        <v>179327</v>
       </c>
       <c r="C237" s="4">
-        <v>3349</v>
+        <v>3351</v>
       </c>
       <c r="D237" s="4">
-        <v>50584</v>
+        <v>50602</v>
       </c>
       <c r="E237" s="4">
-        <v>232893</v>
+        <v>233280</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5086,16 +5086,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>66323</v>
+        <v>66461</v>
       </c>
       <c r="C238" s="4">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="D238" s="4">
-        <v>12816</v>
+        <v>12839</v>
       </c>
       <c r="E238" s="4">
-        <v>81534</v>
+        <v>81696</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5103,16 +5103,16 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>6296</v>
+        <v>6330</v>
       </c>
       <c r="C239" s="4">
         <v>238</v>
       </c>
       <c r="D239" s="4">
-        <v>2980</v>
+        <v>3046</v>
       </c>
       <c r="E239" s="4">
-        <v>9514</v>
+        <v>9614</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5120,16 +5120,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>59202</v>
+        <v>59332</v>
       </c>
       <c r="C240" s="4">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="D240" s="4">
-        <v>30696</v>
+        <v>30704</v>
       </c>
       <c r="E240" s="4">
-        <v>91984</v>
+        <v>92123</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5137,16 +5137,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>585098</v>
+        <v>587390</v>
       </c>
       <c r="C241" s="4">
-        <v>7184</v>
+        <v>7188</v>
       </c>
       <c r="D241" s="4">
-        <v>157363</v>
+        <v>158111</v>
       </c>
       <c r="E241" s="4">
-        <v>749645</v>
+        <v>752689</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5154,16 +5154,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>51941</v>
+        <v>52055</v>
       </c>
       <c r="C242" s="4">
-        <v>2640</v>
+        <v>2644</v>
       </c>
       <c r="D242" s="4">
-        <v>16980</v>
+        <v>17179</v>
       </c>
       <c r="E242" s="4">
-        <v>71561</v>
+        <v>71878</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5171,16 +5171,16 @@
         <v>246</v>
       </c>
       <c r="B243" s="4">
-        <v>2642</v>
+        <v>2647</v>
       </c>
       <c r="C243" s="4">
         <v>535</v>
       </c>
       <c r="D243" s="4">
-        <v>5182</v>
+        <v>5189</v>
       </c>
       <c r="E243" s="4">
-        <v>8359</v>
+        <v>8371</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5188,16 +5188,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>166908</v>
+        <v>167346</v>
       </c>
       <c r="C244" s="4">
-        <v>12036</v>
+        <v>12047</v>
       </c>
       <c r="D244" s="4">
-        <v>82228</v>
+        <v>82544</v>
       </c>
       <c r="E244" s="4">
-        <v>261172</v>
+        <v>261937</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5205,16 +5205,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>19614</v>
+        <v>19667</v>
       </c>
       <c r="C245" s="4">
         <v>855</v>
       </c>
       <c r="D245" s="4">
-        <v>33641</v>
+        <v>33769</v>
       </c>
       <c r="E245" s="4">
-        <v>54110</v>
+        <v>54291</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5222,16 +5222,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>52770</v>
+        <v>52995</v>
       </c>
       <c r="C246" s="4">
         <v>253</v>
       </c>
       <c r="D246" s="4">
-        <v>9748</v>
+        <v>9831</v>
       </c>
       <c r="E246" s="4">
-        <v>62771</v>
+        <v>63079</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5239,16 +5239,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>898143</v>
+        <v>902156</v>
       </c>
       <c r="C247" s="4">
-        <v>37934</v>
+        <v>37984</v>
       </c>
       <c r="D247" s="4">
-        <v>230950</v>
+        <v>231563</v>
       </c>
       <c r="E247" s="4">
-        <v>1167027</v>
+        <v>1171703</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5256,16 +5256,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>56926</v>
+        <v>57053</v>
       </c>
       <c r="C248" s="4">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="D248" s="4">
-        <v>25944</v>
+        <v>25957</v>
       </c>
       <c r="E248" s="4">
-        <v>84494</v>
+        <v>84636</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5273,16 +5273,16 @@
         <v>252</v>
       </c>
       <c r="B249" s="4">
-        <v>2056</v>
+        <v>2074</v>
       </c>
       <c r="C249" s="4">
         <v>75</v>
       </c>
       <c r="D249" s="4">
-        <v>862</v>
+        <v>869</v>
       </c>
       <c r="E249" s="4">
-        <v>2993</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="250" ht="14" customHeight="1">
@@ -5290,16 +5290,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>81229</v>
+        <v>81383</v>
       </c>
       <c r="C250" s="4">
-        <v>4134</v>
+        <v>4137</v>
       </c>
       <c r="D250" s="4">
-        <v>18483</v>
+        <v>18512</v>
       </c>
       <c r="E250" s="4">
-        <v>103846</v>
+        <v>104032</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5307,16 +5307,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>31313</v>
+        <v>31409</v>
       </c>
       <c r="C251" s="4">
-        <v>2450</v>
+        <v>2452</v>
       </c>
       <c r="D251" s="4">
-        <v>20317</v>
+        <v>20416</v>
       </c>
       <c r="E251" s="4">
-        <v>54080</v>
+        <v>54277</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5324,16 +5324,16 @@
         <v>255</v>
       </c>
       <c r="B252" s="4">
-        <v>3085</v>
+        <v>3089</v>
       </c>
       <c r="C252" s="4">
         <v>175</v>
       </c>
       <c r="D252" s="4">
-        <v>2538</v>
+        <v>2548</v>
       </c>
       <c r="E252" s="4">
-        <v>5798</v>
+        <v>5812</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5341,16 +5341,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>11927</v>
+        <v>11954</v>
       </c>
       <c r="C253" s="4">
         <v>718</v>
       </c>
       <c r="D253" s="4">
-        <v>6918</v>
+        <v>6920</v>
       </c>
       <c r="E253" s="4">
-        <v>19563</v>
+        <v>19592</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5358,16 +5358,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>18880</v>
+        <v>18897</v>
       </c>
       <c r="C254" s="4">
         <v>164</v>
       </c>
       <c r="D254" s="4">
-        <v>18542</v>
+        <v>18556</v>
       </c>
       <c r="E254" s="4">
-        <v>37586</v>
+        <v>37617</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5375,16 +5375,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>15670</v>
+        <v>15780</v>
       </c>
       <c r="C255" s="4">
         <v>271</v>
       </c>
       <c r="D255" s="4">
-        <v>3129</v>
+        <v>3145</v>
       </c>
       <c r="E255" s="4">
-        <v>19070</v>
+        <v>19196</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5392,16 +5392,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>349940</v>
+        <v>354159</v>
       </c>
       <c r="C256" s="4">
-        <v>14469</v>
+        <v>14474</v>
       </c>
       <c r="D256" s="4">
-        <v>17936</v>
+        <v>17968</v>
       </c>
       <c r="E256" s="4">
-        <v>382345</v>
+        <v>386601</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5409,16 +5409,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>43212487</v>
+        <v>43339550</v>
       </c>
       <c r="C257" s="4">
-        <v>1773441</v>
+        <v>1774639</v>
       </c>
       <c r="D257" s="4">
-        <v>11359897</v>
+        <v>11389145</v>
       </c>
       <c r="E257" s="4">
-        <v>56345825</v>
+        <v>56503334</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
